--- a/报名流程/辅导班签到表（1）.xlsx
+++ b/报名流程/辅导班签到表（1）.xlsx
@@ -633,7 +633,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="8">
-        <v>42700</v>
+        <v>42713</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>

--- a/报名流程/辅导班签到表（1）.xlsx
+++ b/报名流程/辅导班签到表（1）.xlsx
@@ -16,20 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到校时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离校时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +175,10 @@
   </si>
   <si>
     <t>签到表（1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,438 +626,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="8">
-        <v>42713</v>
+        <v>42720</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
